--- a/app/www/DNA_data_MDB_share.xlsx
+++ b/app/www/DNA_data_MDB_share.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Ecosystems\Conservation Science\Species Conservation Science\Mesocarnivores\Projects\Mesocarnivore_Monitoring_Program\2.Data\Mesocarnivores DB\3. Database Templates\For Scientists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalR\mdm_form_submission\app\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8B812-444E-45A7-8A4A-FA8E6117DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D5A3DC-8FFD-4676-97FF-C31CF1363051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" activeTab="1" xr2:uid="{CA6DC3E6-BE2C-4E9C-9360-11B9CDF39EB7}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{CA6DC3E6-BE2C-4E9C-9360-11B9CDF39EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="DNA sampling" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>Variable Name</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Project_id</t>
   </si>
   <si>
     <t>no</t>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Unique name for the project. E.g., Enterprise Fisher Survey. If you completed the online form, please use the text you used for project name.</t>
+  </si>
+  <si>
+    <t>Enterprise Fisher Survey</t>
   </si>
 </sst>
 </file>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7119A47F-2CB9-41FE-8A11-E74A72A01BD9}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,51 +942,54 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="K1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>63</v>
-      </c>
       <c r="M1" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="28">
         <v>39619</v>
@@ -1001,30 +1004,33 @@
         <v>53.095044000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>71</v>
       </c>
       <c r="C3" s="28">
         <v>39619</v>
@@ -1039,30 +1045,33 @@
         <v>53.086790999999998</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
         <v>73</v>
       </c>
-      <c r="J3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
-        <v>75</v>
-      </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="27">
         <v>39627</v>
@@ -1077,30 +1086,33 @@
         <v>53.095044000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>71</v>
       </c>
       <c r="C5" s="28">
         <v>39619</v>
@@ -1115,25 +1127,25 @@
         <v>53.086790999999998</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1142,7 +1154,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1155,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46423734-555D-4F65-B822-C3ED1A944052}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1196,13 +1208,13 @@
     </row>
     <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1212,13 +1224,13 @@
     </row>
     <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1228,13 +1240,13 @@
     </row>
     <row r="4" spans="1:9" ht="219.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1244,13 +1256,13 @@
     </row>
     <row r="5" spans="1:9" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1260,13 +1272,13 @@
     </row>
     <row r="6" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1276,13 +1288,13 @@
     </row>
     <row r="7" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1292,13 +1304,13 @@
     </row>
     <row r="8" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1308,13 +1320,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1324,22 +1336,22 @@
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G10" s="20"/>
       <c r="I10" s="22"/>
@@ -1349,13 +1361,13 @@
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11" s="6"/>
@@ -1365,13 +1377,13 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G12" s="7"/>
       <c r="I12" s="6"/>
@@ -1381,13 +1393,13 @@
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G13" s="7"/>
       <c r="I13" s="6"/>
@@ -1397,13 +1409,13 @@
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G14" s="7"/>
       <c r="I14" s="6"/>
@@ -1413,13 +1425,13 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="7"/>
       <c r="I15" s="6"/>
@@ -1429,13 +1441,13 @@
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G16" s="7"/>
       <c r="I16" s="6"/>
@@ -1445,13 +1457,13 @@
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G17" s="7"/>
       <c r="I17" s="6"/>
@@ -1461,13 +1473,13 @@
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="G18" s="7"/>
       <c r="I18" s="6"/>
@@ -1477,26 +1489,26 @@
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
       <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1506,13 +1518,13 @@
     </row>
     <row r="21" spans="1:10" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1523,13 +1535,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1540,13 +1552,13 @@
     </row>
     <row r="23" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1557,13 +1569,13 @@
     </row>
     <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1574,13 +1586,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
